--- a/Base_organizada/BBDD_AG_RP/Estructura.xlsx
+++ b/Base_organizada/BBDD_AG_RP/Estructura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bambooanalytics-my.sharepoint.com/personal/francisco_echeverri_wadua_com_co/Documents/Documentos/Prueba_GIT_AG/Proyecto_AulaGlobal/Base_organizada/BBDD_AG_RP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1638" documentId="11_AD4D2F04E46CFB4ACB3E209E1552FDD2693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06FEC35-2B0D-45B6-A731-5A3416B9D8BC}"/>
+  <xr:revisionPtr revIDLastSave="1656" documentId="11_AD4D2F04E46CFB4ACB3E209E1552FDD2693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD15D29C-7220-438F-ADB7-8E74E0A774CC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-18705" yWindow="1815" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2°" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2°'!$A$1:$V$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3°'!$A$1:$W$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4°'!$A$1:$V$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'5°'!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'5°'!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -120,13 +120,37 @@
   </si>
   <si>
     <t>id_global</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>municipio</t>
+  </si>
+  <si>
+    <t>colegio</t>
+  </si>
+  <si>
+    <t>sede</t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>grupo</t>
+  </si>
+  <si>
+    <t>jornada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +175,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -179,11 +210,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,9 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -566,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB575C72-DFA8-48BC-AC73-EA7DACF6C3B1}">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,16 +619,16 @@
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>23</v>
@@ -607,18 +637,18 @@
         <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -744,18 +774,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF71F72-8FAF-44B0-9A4E-69C0666DE71A}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="23" width="11.42578125" style="1"/>
+    <col min="1" max="22" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -769,63 +799,62 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="K1" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1" xr:uid="{2DF71F72-8FAF-44B0-9A4E-69C0666DE71A}"/>
+  <autoFilter ref="A1:V1" xr:uid="{2DF71F72-8FAF-44B0-9A4E-69C0666DE71A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Base_organizada/BBDD_AG_RP/Estructura.xlsx
+++ b/Base_organizada/BBDD_AG_RP/Estructura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bambooanalytics-my.sharepoint.com/personal/francisco_echeverri_wadua_com_co/Documents/Documentos/Prueba_GIT_AG/Proyecto_AulaGlobal/Base_organizada/BBDD_AG_RP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1656" documentId="11_AD4D2F04E46CFB4ACB3E209E1552FDD2693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD15D29C-7220-438F-ADB7-8E74E0A774CC}"/>
+  <xr:revisionPtr revIDLastSave="1676" documentId="11_AD4D2F04E46CFB4ACB3E209E1552FDD2693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A258AB07-3226-47D9-A994-62ECD197B134}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-18705" yWindow="1815" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2085" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2°" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2°'!$A$1:$V$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3°'!$A$1:$W$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4°'!$A$1:$V$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'5°'!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'5°'!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,34 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Municipio</t>
-  </si>
-  <si>
-    <t>Colegio</t>
-  </si>
-  <si>
-    <t>Sede</t>
-  </si>
-  <si>
-    <t>Género</t>
-  </si>
-  <si>
-    <t>Grado</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>Jornada</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
   <si>
     <t>¿Con qué frecuencia asistes al colegio?</t>
   </si>
@@ -110,9 +83,6 @@
     <t>programa</t>
   </si>
   <si>
-    <t>Tratamiento/control</t>
-  </si>
-  <si>
     <t>focalizado</t>
   </si>
   <si>
@@ -144,6 +114,9 @@
   </si>
   <si>
     <t>jornada</t>
+  </si>
+  <si>
+    <t>grupo_tc</t>
   </si>
 </sst>
 </file>
@@ -506,7 +479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -515,70 +490,70 @@
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -594,10 +569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB575C72-DFA8-48BC-AC73-EA7DACF6C3B1}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,75 +583,78 @@
     <col min="19" max="23" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +668,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,70 +678,70 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -774,92 +752,104 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF71F72-8FAF-44B0-9A4E-69C0666DE71A}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="11.42578125" style="1"/>
+    <col min="1" max="21" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1" xr:uid="{2DF71F72-8FAF-44B0-9A4E-69C0666DE71A}"/>
+  <autoFilter ref="A1:U1" xr:uid="{2DF71F72-8FAF-44B0-9A4E-69C0666DE71A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007E6519502A214D43B3DDFCF5E94F901E" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="90f6c4560d8bc755c62d8c2203e7a644">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3eff0a0a-75ec-4759-8be4-4c323b0f0df5" xmlns:ns3="cd170719-9bd0-436b-b4b8-eee07325531c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64ddfcc38bb4a68bf603592444bf132" ns2:_="" ns3:_="">
     <xsd:import namespace="3eff0a0a-75ec-4759-8be4-4c323b0f0df5"/>
@@ -1036,22 +1026,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{311F58A3-5CEA-498E-ADA7-4AE49EEF9484}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BFCD0F7-31A8-4C62-89A0-20AB80295A89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1143663F-0DAD-4E6C-ACF4-F09EAA59ED31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1068,21 +1060,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{311F58A3-5CEA-498E-ADA7-4AE49EEF9484}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BFCD0F7-31A8-4C62-89A0-20AB80295A89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Base_organizada/BBDD_AG_RP/Estructura.xlsx
+++ b/Base_organizada/BBDD_AG_RP/Estructura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bambooanalytics-my.sharepoint.com/personal/francisco_echeverri_wadua_com_co/Documents/Documentos/Prueba_GIT_AG/Proyecto_AulaGlobal/Base_organizada/BBDD_AG_RP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1676" documentId="11_AD4D2F04E46CFB4ACB3E209E1552FDD2693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A258AB07-3226-47D9-A994-62ECD197B134}"/>
+  <xr:revisionPtr revIDLastSave="1682" documentId="11_AD4D2F04E46CFB4ACB3E209E1552FDD2693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EDC5626-6FC0-4BFB-B40B-64CEEEA50A61}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2085" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2085" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2°" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
   <si>
     <t>¿Con qué frecuencia asistes al colegio?</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>grupo_tc</t>
+  </si>
+  <si>
+    <t>egma_items</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +491,7 @@
     <col min="1" max="22" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -554,6 +557,9 @@
       </c>
       <c r="V1" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB575C72-DFA8-48BC-AC73-EA7DACF6C3B1}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +589,7 @@
     <col min="19" max="23" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -655,6 +661,9 @@
       </c>
       <c r="X1" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -665,10 +674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB96150E-6B36-4B1A-A3D8-EC03BB8F739D}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +685,7 @@
     <col min="1" max="22" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -742,6 +751,9 @@
       </c>
       <c r="V1" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -752,10 +764,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF71F72-8FAF-44B0-9A4E-69C0666DE71A}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +775,7 @@
     <col min="1" max="21" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -826,6 +838,9 @@
       </c>
       <c r="U1" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -835,21 +850,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007E6519502A214D43B3DDFCF5E94F901E" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="90f6c4560d8bc755c62d8c2203e7a644">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3eff0a0a-75ec-4759-8be4-4c323b0f0df5" xmlns:ns3="cd170719-9bd0-436b-b4b8-eee07325531c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64ddfcc38bb4a68bf603592444bf132" ns2:_="" ns3:_="">
     <xsd:import namespace="3eff0a0a-75ec-4759-8be4-4c323b0f0df5"/>
@@ -1026,24 +1026,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{311F58A3-5CEA-498E-ADA7-4AE49EEF9484}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BFCD0F7-31A8-4C62-89A0-20AB80295A89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1143663F-0DAD-4E6C-ACF4-F09EAA59ED31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1060,4 +1058,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BFCD0F7-31A8-4C62-89A0-20AB80295A89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{311F58A3-5CEA-498E-ADA7-4AE49EEF9484}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>